--- a/data/trans_orig/P16A06-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Clase-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2299,7 +2299,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (tasa de respuesta: 99,69%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2012 (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4044,7 +4044,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5805,7 +5805,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A06-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>9586</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5087</v>
+        <v>4462</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17315</v>
+        <v>17019</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02023325441639601</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01073782209438689</v>
+        <v>0.009418654730020765</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03654589455300451</v>
+        <v>0.03592150482918046</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -765,19 +765,19 @@
         <v>9305</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4873</v>
+        <v>4358</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18146</v>
+        <v>18031</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03034185124275177</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01588968506375881</v>
+        <v>0.01420932031341785</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05916967508092191</v>
+        <v>0.0587933541184496</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -786,19 +786,19 @@
         <v>18891</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11692</v>
+        <v>11624</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29203</v>
+        <v>30113</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02420542593526784</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01498087725077393</v>
+        <v>0.01489436449865192</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03741840522423237</v>
+        <v>0.03858426117158757</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>464190</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>456461</v>
+        <v>456757</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>468689</v>
+        <v>469314</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.979766745583604</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9634541054469955</v>
+        <v>0.9640784951708198</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9892621779056131</v>
+        <v>0.9905813452699792</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>289</v>
@@ -836,19 +836,19 @@
         <v>297375</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>288534</v>
+        <v>288649</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>301807</v>
+        <v>302322</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9696581487572482</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.940830324919078</v>
+        <v>0.941206645881551</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9841103149362411</v>
+        <v>0.9857906796865823</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>734</v>
@@ -857,19 +857,19 @@
         <v>761566</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>751254</v>
+        <v>750344</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>768765</v>
+        <v>768833</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9757945740647321</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9625815947757678</v>
+        <v>0.9614157388284125</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9850191227492261</v>
+        <v>0.9851056355013481</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>7384</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3525</v>
+        <v>2935</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15493</v>
+        <v>15026</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02012278008243811</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009607640049173883</v>
+        <v>0.007998840986568161</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0422219691936519</v>
+        <v>0.04095131667388206</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -982,19 +982,19 @@
         <v>7403</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3129</v>
+        <v>3457</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14826</v>
+        <v>14902</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01990649038084521</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008415178901728283</v>
+        <v>0.009296587579331042</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03987050225276742</v>
+        <v>0.04007378439168535</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -1003,19 +1003,19 @@
         <v>14786</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8509</v>
+        <v>8402</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24707</v>
+        <v>24918</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02001391347567357</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01151668035896184</v>
+        <v>0.01137242811330743</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03344262016295899</v>
+        <v>0.03372729752031965</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>359550</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>351441</v>
+        <v>351908</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>363409</v>
+        <v>363999</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9798772199175619</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.957778030806348</v>
+        <v>0.9590486833261179</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9903923599508261</v>
+        <v>0.9920011590134319</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>356</v>
@@ -1053,19 +1053,19 @@
         <v>364462</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>357039</v>
+        <v>356963</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>368736</v>
+        <v>368408</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9800935096191548</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9601294977472334</v>
+        <v>0.9599262156083148</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9915848210982717</v>
+        <v>0.9907034124206689</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>699</v>
@@ -1074,19 +1074,19 @@
         <v>724013</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>714092</v>
+        <v>713881</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>730290</v>
+        <v>730397</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9799860865243264</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9665573798370417</v>
+        <v>0.9662727024796804</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9884833196410383</v>
+        <v>0.9886275718866927</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>7781</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3752</v>
+        <v>3724</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15008</v>
+        <v>14337</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01434667908278262</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006917597253206792</v>
+        <v>0.006865016880200879</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02766958922161852</v>
+        <v>0.02643216137370185</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1199,19 +1199,19 @@
         <v>6707</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2869</v>
+        <v>2855</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13658</v>
+        <v>12457</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03997390700488521</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01709971941856293</v>
+        <v>0.01701799615342596</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08140397736204728</v>
+        <v>0.07424444994440246</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1220,19 +1220,19 @@
         <v>14488</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7889</v>
+        <v>8532</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22252</v>
+        <v>22268</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02040125632658873</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01110905400341928</v>
+        <v>0.01201422247824117</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03133302986586255</v>
+        <v>0.03135585800168628</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>534608</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>527381</v>
+        <v>528052</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>538637</v>
+        <v>538665</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9856533209172174</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9723304107783811</v>
+        <v>0.9735678386262978</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9930824027467932</v>
+        <v>0.9931349831197986</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>157</v>
@@ -1270,19 +1270,19 @@
         <v>161075</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>154124</v>
+        <v>155325</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>164913</v>
+        <v>164927</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9600260929951148</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9185960226379533</v>
+        <v>0.9257555500555978</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9829002805814372</v>
+        <v>0.9829820038465742</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>680</v>
@@ -1291,19 +1291,19 @@
         <v>695683</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>687919</v>
+        <v>687903</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>702282</v>
+        <v>701639</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9795987436734113</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9686669701341374</v>
+        <v>0.9686441419983137</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9888909459965807</v>
+        <v>0.9879857775217589</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>29880</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20454</v>
+        <v>21346</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42647</v>
+        <v>42733</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02412901999619081</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01651731725439488</v>
+        <v>0.01723742508552617</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03443928976176623</v>
+        <v>0.03450852377838039</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -1416,19 +1416,19 @@
         <v>24292</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15898</v>
+        <v>16227</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34964</v>
+        <v>36625</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03400840620410713</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02225719532281682</v>
+        <v>0.02271834359544998</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0489500491286237</v>
+        <v>0.05127521527827523</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -1437,19 +1437,19 @@
         <v>54172</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41267</v>
+        <v>40769</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>68900</v>
+        <v>68672</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02774298564904992</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02113437477974831</v>
+        <v>0.02087920948080692</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03528597107778606</v>
+        <v>0.03516915153880851</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1208454</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1195687</v>
+        <v>1195601</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1217880</v>
+        <v>1216988</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9758709800038092</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9655607102382343</v>
+        <v>0.9654914762216196</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9834826827456052</v>
+        <v>0.9827625749144738</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>670</v>
@@ -1487,19 +1487,19 @@
         <v>689993</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>679321</v>
+        <v>677660</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>698387</v>
+        <v>698058</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9659915937958928</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9510499508713763</v>
+        <v>0.9487247847217249</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9777428046771832</v>
+        <v>0.97728165640455</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1863</v>
@@ -1508,19 +1508,19 @@
         <v>1898448</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1883720</v>
+        <v>1883948</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1911353</v>
+        <v>1911851</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9722570143509501</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9647140289222139</v>
+        <v>0.9648308484611914</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9788656252202514</v>
+        <v>0.9791207905191928</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>10293</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5211</v>
+        <v>5827</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18917</v>
+        <v>19688</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02944623429932078</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01490961371064667</v>
+        <v>0.01666972911033357</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05412140418712298</v>
+        <v>0.05632735709895565</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -1633,19 +1633,19 @@
         <v>21064</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13062</v>
+        <v>13777</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31064</v>
+        <v>32274</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0370350537373141</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02296644292574826</v>
+        <v>0.02422316337969928</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05461723247804391</v>
+        <v>0.05674457118817934</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -1654,19 +1654,19 @@
         <v>31356</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21763</v>
+        <v>21729</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43629</v>
+        <v>44006</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03414644883262957</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02369933267269222</v>
+        <v>0.02366211231489585</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04751091059287973</v>
+        <v>0.04792131665055345</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>339244</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>330620</v>
+        <v>329849</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>344326</v>
+        <v>343710</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9705537657006792</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.945878595812877</v>
+        <v>0.943672642901045</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9850903862893532</v>
+        <v>0.9833302708896666</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>519</v>
@@ -1704,19 +1704,19 @@
         <v>547688</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>537688</v>
+        <v>536478</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>555690</v>
+        <v>554975</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9629649462626859</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9453827675219563</v>
+        <v>0.9432554288118208</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9770335570742522</v>
+        <v>0.9757768366203008</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>848</v>
@@ -1725,19 +1725,19 @@
         <v>886933</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>874660</v>
+        <v>874283</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>896526</v>
+        <v>896560</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9658535511673705</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9524890894071203</v>
+        <v>0.9520786833494466</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9763006673273078</v>
+        <v>0.9763378876851041</v>
       </c>
     </row>
     <row r="18">
@@ -1842,19 +1842,19 @@
         <v>71902</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55667</v>
+        <v>56819</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>87989</v>
+        <v>90176</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05757874661430313</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04457756724966443</v>
+        <v>0.04550053892519003</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07046075745191144</v>
+        <v>0.0722127106510059</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>69</v>
@@ -1863,19 +1863,19 @@
         <v>71902</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57406</v>
+        <v>55169</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>89582</v>
+        <v>88823</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04647955228469861</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03710906096019359</v>
+        <v>0.03566301787535097</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05790839512250016</v>
+        <v>0.05741806080103741</v>
       </c>
     </row>
     <row r="20">
@@ -1905,19 +1905,19 @@
         <v>1176858</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1160771</v>
+        <v>1158584</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1193093</v>
+        <v>1191941</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9424212533856968</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9295392425480886</v>
+        <v>0.9277872893489941</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9554224327503357</v>
+        <v>0.9544994610748101</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1475</v>
@@ -1926,19 +1926,19 @@
         <v>1475058</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1457378</v>
+        <v>1458137</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1489554</v>
+        <v>1491791</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9535204477153014</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9420916048774997</v>
+        <v>0.9425819391989616</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9628909390398064</v>
+        <v>0.964336982124649</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>64924</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>51564</v>
+        <v>49848</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>81474</v>
+        <v>82895</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01985934271973099</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01577293330358535</v>
+        <v>0.01524794917508362</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02492186815716843</v>
+        <v>0.02535667640722011</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>136</v>
@@ -2051,19 +2051,19 @@
         <v>140672</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>120010</v>
+        <v>118592</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>165558</v>
+        <v>166153</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.041642092808516</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0355256091101375</v>
+        <v>0.03510585944803275</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04900893016561741</v>
+        <v>0.04918510588819518</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>203</v>
@@ -2072,19 +2072,19 @@
         <v>205596</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>176304</v>
+        <v>181547</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>233124</v>
+        <v>236765</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03092923233684464</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02652259307435401</v>
+        <v>0.02731140630832425</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03507052936541322</v>
+        <v>0.03561817345538622</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>3204248</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3187698</v>
+        <v>3186277</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3217608</v>
+        <v>3219324</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.980140657280269</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9750781318428317</v>
+        <v>0.9746433235927801</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9842270666964148</v>
+        <v>0.9847520508249166</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3160</v>
@@ -2122,19 +2122,19 @@
         <v>3237452</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3212566</v>
+        <v>3211971</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3258114</v>
+        <v>3259532</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9583579071914841</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9509910698343825</v>
+        <v>0.9508148941118049</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9644743908898624</v>
+        <v>0.9648941405519673</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6299</v>
@@ -2143,19 +2143,19 @@
         <v>6441700</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6414172</v>
+        <v>6410531</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6470992</v>
+        <v>6465749</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9690707676631554</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9649294706345867</v>
+        <v>0.9643818265446134</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9734774069256459</v>
+        <v>0.9726885936916756</v>
       </c>
     </row>
     <row r="24">
@@ -2489,19 +2489,19 @@
         <v>9117</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4021</v>
+        <v>4100</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18689</v>
+        <v>19015</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02085308138899358</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009195853826876614</v>
+        <v>0.009377051221181869</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04274576232726039</v>
+        <v>0.04349195387916012</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -2510,19 +2510,19 @@
         <v>11559</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5554</v>
+        <v>5899</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21344</v>
+        <v>21658</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03675772119041452</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01766241962925245</v>
+        <v>0.01876038821833231</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06787642467638781</v>
+        <v>0.06887622556029652</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -2531,19 +2531,19 @@
         <v>20676</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12093</v>
+        <v>12484</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32759</v>
+        <v>33073</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0275066856190651</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01608768943779429</v>
+        <v>0.01660871985549351</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.043581957300923</v>
+        <v>0.0439998734331149</v>
       </c>
     </row>
     <row r="5">
@@ -2560,19 +2560,19 @@
         <v>428094</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>418522</v>
+        <v>418196</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>433190</v>
+        <v>433111</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9791469186110064</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9572542376727395</v>
+        <v>0.9565080461208401</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9908041461731234</v>
+        <v>0.9906229487788182</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>273</v>
@@ -2581,19 +2581,19 @@
         <v>302895</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>293110</v>
+        <v>292796</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>308900</v>
+        <v>308555</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9632422788095855</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9321235753236123</v>
+        <v>0.9311237744397041</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9823375803707476</v>
+        <v>0.9812396117816677</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>670</v>
@@ -2602,19 +2602,19 @@
         <v>730989</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>718906</v>
+        <v>718592</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>739572</v>
+        <v>739181</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9724933143809349</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.956418042699077</v>
+        <v>0.9560001265668853</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9839123105622061</v>
+        <v>0.9833912801445065</v>
       </c>
     </row>
     <row r="6">
@@ -2706,19 +2706,19 @@
         <v>9307</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4047</v>
+        <v>4036</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19175</v>
+        <v>20178</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02237365891115952</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009727773632315343</v>
+        <v>0.009703115590258059</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0460958546016759</v>
+        <v>0.04850603670253267</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -2727,19 +2727,19 @@
         <v>6974</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2968</v>
+        <v>2901</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13892</v>
+        <v>13823</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02079774313839712</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008852333438314718</v>
+        <v>0.008652627467733327</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04143073657904917</v>
+        <v>0.04122333455888906</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -2748,19 +2748,19 @@
         <v>16281</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8908</v>
+        <v>10137</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26430</v>
+        <v>28532</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0216703070723144</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0118562950565178</v>
+        <v>0.01349302225446774</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03517838205392668</v>
+        <v>0.03797638400500444</v>
       </c>
     </row>
     <row r="8">
@@ -2777,19 +2777,19 @@
         <v>406678</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>396810</v>
+        <v>395807</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>411938</v>
+        <v>411949</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9776263410888405</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.953904145398324</v>
+        <v>0.9514939632974676</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9902722263676846</v>
+        <v>0.990296884409742</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>296</v>
@@ -2798,19 +2798,19 @@
         <v>328341</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>321423</v>
+        <v>321492</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>332347</v>
+        <v>332414</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9792022568616029</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9585692634209508</v>
+        <v>0.9587766654411106</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9911476665616853</v>
+        <v>0.9913473725322666</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>661</v>
@@ -2819,19 +2819,19 @@
         <v>735020</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>724871</v>
+        <v>722769</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>742393</v>
+        <v>741164</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9783296929276856</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9648216179460732</v>
+        <v>0.9620236159949952</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9881437049434821</v>
+        <v>0.9865069777455323</v>
       </c>
     </row>
     <row r="9">
@@ -2923,19 +2923,19 @@
         <v>19761</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12078</v>
+        <v>12330</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30781</v>
+        <v>31671</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03154938124535882</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01928287312637533</v>
+        <v>0.01968569600899678</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04914443709354971</v>
+        <v>0.05056465781089934</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -2944,19 +2944,19 @@
         <v>12450</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7115</v>
+        <v>6296</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20633</v>
+        <v>20316</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04826733315324096</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02758256435711557</v>
+        <v>0.02440906535986983</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07999339074507292</v>
+        <v>0.07876212396546446</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -2965,19 +2965,19 @@
         <v>32211</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21694</v>
+        <v>21270</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44286</v>
+        <v>44143</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03642590402696553</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02453300836977602</v>
+        <v>0.02405378831585446</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05008144819222338</v>
+        <v>0.04992005546818917</v>
       </c>
     </row>
     <row r="11">
@@ -2994,19 +2994,19 @@
         <v>606577</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>595557</v>
+        <v>594667</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>614260</v>
+        <v>614008</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9684506187546412</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9508555629064502</v>
+        <v>0.9494353421891006</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9807171268736247</v>
+        <v>0.9803143039910032</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>230</v>
@@ -3015,19 +3015,19 @@
         <v>245488</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>237305</v>
+        <v>237622</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>250823</v>
+        <v>251642</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9517326668467591</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9200066092549262</v>
+        <v>0.9212378760345349</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9724174356428844</v>
+        <v>0.97559093464013</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>801</v>
@@ -3036,19 +3036,19 @@
         <v>852065</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>839990</v>
+        <v>840133</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>862582</v>
+        <v>863006</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9635740959730345</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9499185518077766</v>
+        <v>0.9500799445318109</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.975466991630224</v>
+        <v>0.9759462116841457</v>
       </c>
     </row>
     <row r="12">
@@ -3140,19 +3140,19 @@
         <v>18809</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11147</v>
+        <v>10507</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31386</v>
+        <v>32030</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01624054529485411</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009625057892279385</v>
+        <v>0.009072504014140096</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02710067966645221</v>
+        <v>0.02765623332243977</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -3161,19 +3161,19 @@
         <v>32410</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21634</v>
+        <v>22123</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44679</v>
+        <v>46136</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04232995301188033</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0282555164017804</v>
+        <v>0.02889467962719809</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0583545050691691</v>
+        <v>0.06025847512008038</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -3182,19 +3182,19 @@
         <v>51218</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38721</v>
+        <v>37502</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>70006</v>
+        <v>69564</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02662387751826925</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0201276833745452</v>
+        <v>0.01949384214966115</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03638993242491859</v>
+        <v>0.03616007917317899</v>
       </c>
     </row>
     <row r="14">
@@ -3211,19 +3211,19 @@
         <v>1139321</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1126744</v>
+        <v>1126100</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1146983</v>
+        <v>1147623</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9837594547051459</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9728993203335479</v>
+        <v>0.9723437666775604</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9903749421077209</v>
+        <v>0.9909274959858599</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>681</v>
@@ -3232,19 +3232,19 @@
         <v>733233</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>720964</v>
+        <v>719507</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>744009</v>
+        <v>743520</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9576700469881196</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9416454949308312</v>
+        <v>0.9397415248799196</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9717444835982196</v>
+        <v>0.971105320372802</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1747</v>
@@ -3253,19 +3253,19 @@
         <v>1872556</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1853768</v>
+        <v>1854210</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1885053</v>
+        <v>1886272</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9733761224817308</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9636100675750814</v>
+        <v>0.9638399208268209</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9798723166254548</v>
+        <v>0.9805061578503388</v>
       </c>
     </row>
     <row r="15">
@@ -3357,19 +3357,19 @@
         <v>11018</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5597</v>
+        <v>5636</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18939</v>
+        <v>19413</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02162209666656045</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0109833339688407</v>
+        <v>0.01106078792140269</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03716752233034707</v>
+        <v>0.0380973446064015</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -3378,19 +3378,19 @@
         <v>65151</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>48412</v>
+        <v>51172</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81779</v>
+        <v>84192</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0859099971269728</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06383720312484513</v>
+        <v>0.06747612453367809</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1078352746791559</v>
+        <v>0.1110167020188782</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>71</v>
@@ -3399,19 +3399,19 @@
         <v>76169</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>60756</v>
+        <v>60090</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>93843</v>
+        <v>94004</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06007351257894313</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0479171612065345</v>
+        <v>0.04739204009533487</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0740126709630646</v>
+        <v>0.07413932331369709</v>
       </c>
     </row>
     <row r="17">
@@ -3428,19 +3428,19 @@
         <v>498549</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>490628</v>
+        <v>490154</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>503970</v>
+        <v>503931</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9783779033334395</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9628324776696529</v>
+        <v>0.9619026553935985</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9890166660311593</v>
+        <v>0.9889392120785973</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>640</v>
@@ -3449,19 +3449,19 @@
         <v>693217</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>676589</v>
+        <v>674176</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>709956</v>
+        <v>707196</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9140900028730272</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8921647253208441</v>
+        <v>0.8889832979811219</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9361627968751548</v>
+        <v>0.9325238754663219</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1115</v>
@@ -3470,19 +3470,19 @@
         <v>1191766</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1174092</v>
+        <v>1173931</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1207179</v>
+        <v>1207845</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9399264874210569</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9259873290369355</v>
+        <v>0.9258606766863019</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9520828387934657</v>
+        <v>0.952607959904665</v>
       </c>
     </row>
     <row r="18">
@@ -3587,19 +3587,19 @@
         <v>94415</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>76134</v>
+        <v>76867</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>114874</v>
+        <v>114507</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08542390372602138</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06888371942401351</v>
+        <v>0.0695468868775599</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1039342437502337</v>
+        <v>0.1036026893373619</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>87</v>
@@ -3608,19 +3608,19 @@
         <v>94415</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>76501</v>
+        <v>75738</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>116447</v>
+        <v>113985</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06886112747203393</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05579572374122117</v>
+        <v>0.05523881669687639</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08492984568805653</v>
+        <v>0.08313376127762581</v>
       </c>
     </row>
     <row r="20">
@@ -3650,19 +3650,19 @@
         <v>1010841</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>990382</v>
+        <v>990749</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1029122</v>
+        <v>1028389</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9145760962739786</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8960657562497663</v>
+        <v>0.8963973106626381</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9311162805759864</v>
+        <v>0.9304531131224401</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1217</v>
@@ -3671,19 +3671,19 @@
         <v>1276683</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1254651</v>
+        <v>1257113</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1294597</v>
+        <v>1295360</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9311388725279661</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9150701543119435</v>
+        <v>0.9168662387223742</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9442042762587789</v>
+        <v>0.9447611833031236</v>
       </c>
     </row>
     <row r="21">
@@ -3775,19 +3775,19 @@
         <v>68011</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>51788</v>
+        <v>52188</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87997</v>
+        <v>86439</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01992675498232742</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01517356200320269</v>
+        <v>0.01529064221135558</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02578228882821936</v>
+        <v>0.02532572590975515</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>205</v>
@@ -3796,19 +3796,19 @@
         <v>222959</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>194214</v>
+        <v>194414</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>254681</v>
+        <v>252178</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06303656269921115</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05490974244885478</v>
+        <v>0.0549662236779489</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0720053704296344</v>
+        <v>0.07129751926446755</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>264</v>
@@ -3817,19 +3817,19 @@
         <v>290970</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>260086</v>
+        <v>257854</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>327401</v>
+        <v>329280</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04186593130562601</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03742212955344013</v>
+        <v>0.03710104411204612</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0471076704430156</v>
+        <v>0.04737804053400956</v>
       </c>
     </row>
     <row r="23">
@@ -3846,19 +3846,19 @@
         <v>3345061</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3325075</v>
+        <v>3326633</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3361284</v>
+        <v>3360884</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9800732450176726</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9742177111717807</v>
+        <v>0.9746742740902449</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9848264379967974</v>
+        <v>0.9847093577886444</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3073</v>
@@ -3867,19 +3867,19 @@
         <v>3314016</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3282294</v>
+        <v>3284797</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3342761</v>
+        <v>3342561</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9369634373007888</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9279946295703654</v>
+        <v>0.9287024807355325</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.945090257551145</v>
+        <v>0.9450337763220512</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6211</v>
@@ -3888,19 +3888,19 @@
         <v>6659077</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6622646</v>
+        <v>6620767</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6689961</v>
+        <v>6692193</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.958134068694374</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9528923295569839</v>
+        <v>0.9526219594659904</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9625778704465592</v>
+        <v>0.9628989558879538</v>
       </c>
     </row>
     <row r="24">
@@ -4234,19 +4234,19 @@
         <v>11455</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5839</v>
+        <v>5621</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21376</v>
+        <v>21523</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02669663254510401</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01360701728346991</v>
+        <v>0.0131000613304575</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04981610178511287</v>
+        <v>0.05016034057437008</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -4255,19 +4255,19 @@
         <v>10841</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5883</v>
+        <v>5343</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21068</v>
+        <v>18932</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0312385476095932</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01695049168784052</v>
+        <v>0.01539495519250203</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0607038635079847</v>
+        <v>0.05454920674920942</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -4276,19 +4276,19 @@
         <v>22297</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14407</v>
+        <v>14110</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34176</v>
+        <v>34712</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02872755462146801</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01856232189191125</v>
+        <v>0.0181795202935106</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04403285255193465</v>
+        <v>0.04472295676889582</v>
       </c>
     </row>
     <row r="5">
@@ -4305,19 +4305,19 @@
         <v>417637</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>407716</v>
+        <v>407569</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>423253</v>
+        <v>423471</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.973303367454896</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9501838982148868</v>
+        <v>0.9498396594256298</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9863929827165301</v>
+        <v>0.9868999386695425</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>322</v>
@@ -4326,19 +4326,19 @@
         <v>336214</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>325987</v>
+        <v>328123</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>341172</v>
+        <v>341712</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9687614523904068</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9392961364920154</v>
+        <v>0.9454507932507906</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9830495083121595</v>
+        <v>0.9846050448074981</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>708</v>
@@ -4347,19 +4347,19 @@
         <v>753850</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>741971</v>
+        <v>741435</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>761740</v>
+        <v>762037</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.971272445378532</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9559671474480653</v>
+        <v>0.9552770432311043</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9814376781080888</v>
+        <v>0.9818204797064893</v>
       </c>
     </row>
     <row r="6">
@@ -4451,19 +4451,19 @@
         <v>8013</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3926</v>
+        <v>3083</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15275</v>
+        <v>14406</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02124151498825226</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01040766544065326</v>
+        <v>0.008171724611257343</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04049395708184601</v>
+        <v>0.0381894877995273</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -4472,19 +4472,19 @@
         <v>12539</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6509</v>
+        <v>7187</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21585</v>
+        <v>21331</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03368225378051596</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01748569364324337</v>
+        <v>0.01930497098725878</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05798260005148494</v>
+        <v>0.05730037710911423</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -4493,19 +4493,19 @@
         <v>20552</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13155</v>
+        <v>12651</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30751</v>
+        <v>30856</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02742077164488027</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01755152062257724</v>
+        <v>0.01687987392449545</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04102881978383888</v>
+        <v>0.04116854715323821</v>
       </c>
     </row>
     <row r="8">
@@ -4522,19 +4522,19 @@
         <v>369214</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>361952</v>
+        <v>362821</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>373301</v>
+        <v>374144</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9787584850117478</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9595060429181539</v>
+        <v>0.9618105122004723</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9895923345593466</v>
+        <v>0.9918282753887426</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>340</v>
@@ -4543,19 +4543,19 @@
         <v>359734</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>350688</v>
+        <v>350942</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>365764</v>
+        <v>365086</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9663177462194841</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.942017399948515</v>
+        <v>0.9426996228908856</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9825143063567566</v>
+        <v>0.9806950290127412</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>686</v>
@@ -4564,19 +4564,19 @@
         <v>728948</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>718749</v>
+        <v>718644</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>736345</v>
+        <v>736849</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9725792283551198</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.958971180216161</v>
+        <v>0.9588314528467616</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9824484793774226</v>
+        <v>0.9831201260755045</v>
       </c>
     </row>
     <row r="9">
@@ -4668,19 +4668,19 @@
         <v>12565</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7163</v>
+        <v>6854</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21647</v>
+        <v>21409</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02407487301727467</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01372359067757085</v>
+        <v>0.01313330025643465</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04147587595759894</v>
+        <v>0.04101992215868887</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -4689,19 +4689,19 @@
         <v>14707</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7888</v>
+        <v>8088</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23757</v>
+        <v>22903</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08852849713861193</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04748075690820675</v>
+        <v>0.04868981977852372</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1430098515333803</v>
+        <v>0.1378687718643948</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -4710,19 +4710,19 @@
         <v>27272</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18557</v>
+        <v>18070</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39497</v>
+        <v>37877</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03963686261431333</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02697077060586486</v>
+        <v>0.02626257738858171</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05740470435946935</v>
+        <v>0.05505070208532569</v>
       </c>
     </row>
     <row r="11">
@@ -4739,19 +4739,19 @@
         <v>509349</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>500267</v>
+        <v>500505</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>514751</v>
+        <v>515060</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9759251269827254</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9585241240424018</v>
+        <v>0.9589800778413111</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9862764093224293</v>
+        <v>0.9868666997435653</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>140</v>
@@ -4760,19 +4760,19 @@
         <v>151416</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>142366</v>
+        <v>143220</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>158235</v>
+        <v>158035</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9114715028613881</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8569901484666194</v>
+        <v>0.8621312281356054</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9525192430917931</v>
+        <v>0.9513101802214764</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>630</v>
@@ -4781,19 +4781,19 @@
         <v>660764</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>648539</v>
+        <v>650159</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>669479</v>
+        <v>669966</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9603631373856867</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9425952956405305</v>
+        <v>0.9449492979146755</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9730292293941348</v>
+        <v>0.9737374226114187</v>
       </c>
     </row>
     <row r="12">
@@ -4885,19 +4885,19 @@
         <v>36799</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25263</v>
+        <v>25741</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50357</v>
+        <v>51598</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03200929053321441</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02197497767903389</v>
+        <v>0.02239076213140384</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04380234806353428</v>
+        <v>0.04488169297307978</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -4906,19 +4906,19 @@
         <v>44957</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32640</v>
+        <v>34053</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59448</v>
+        <v>60027</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05443598314414094</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0395211804312972</v>
+        <v>0.04123270683000181</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07198220027237646</v>
+        <v>0.0726823862930296</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -4927,19 +4927,19 @@
         <v>81756</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>65793</v>
+        <v>65691</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100817</v>
+        <v>102536</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04138490713791475</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03330418284282548</v>
+        <v>0.03325237348523839</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05103318964988489</v>
+        <v>0.05190369013987157</v>
       </c>
     </row>
     <row r="14">
@@ -4956,19 +4956,19 @@
         <v>1112839</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1099281</v>
+        <v>1098040</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1124375</v>
+        <v>1123897</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9679907094667856</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.956197651936466</v>
+        <v>0.95511830702692</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9780250223209663</v>
+        <v>0.9776092378685961</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>755</v>
@@ -4977,19 +4977,19 @@
         <v>780919</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>766428</v>
+        <v>765849</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>793236</v>
+        <v>791823</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9455640168558591</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9280177997276235</v>
+        <v>0.9273176137069704</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9604788195687028</v>
+        <v>0.9587672931699982</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1823</v>
@@ -4998,19 +4998,19 @@
         <v>1893758</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1874697</v>
+        <v>1872978</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1909721</v>
+        <v>1909823</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9586150928620852</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.948966810350115</v>
+        <v>0.9480963098601285</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9666958171571746</v>
+        <v>0.9667476265147616</v>
       </c>
     </row>
     <row r="15">
@@ -5102,19 +5102,19 @@
         <v>19005</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11958</v>
+        <v>12105</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30925</v>
+        <v>29371</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03061811830446756</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01926579963961382</v>
+        <v>0.01950225167300918</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04982211034632385</v>
+        <v>0.04731806345901737</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>67</v>
@@ -5123,19 +5123,19 @@
         <v>73282</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>58343</v>
+        <v>58634</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>91061</v>
+        <v>92256</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09926466282724589</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07902892314854358</v>
+        <v>0.07942385871013033</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1233481917833648</v>
+        <v>0.1249672839779901</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>86</v>
@@ -5144,19 +5144,19 @@
         <v>92286</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>74070</v>
+        <v>74761</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>112127</v>
+        <v>112632</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06791007762930852</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05450521505630081</v>
+        <v>0.05501372654622499</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08250975500632529</v>
+        <v>0.08288186266034246</v>
       </c>
     </row>
     <row r="17">
@@ -5173,19 +5173,19 @@
         <v>601701</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>589781</v>
+        <v>591335</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>608748</v>
+        <v>608601</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9693818816955324</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9501778896536759</v>
+        <v>0.9526819365409824</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9807342003603861</v>
+        <v>0.9804977483269908</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>632</v>
@@ -5194,19 +5194,19 @@
         <v>664962</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>647183</v>
+        <v>645988</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>679901</v>
+        <v>679610</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9007353371727541</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8766518082166348</v>
+        <v>0.8750327160220099</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9209710768514561</v>
+        <v>0.9205761412898696</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1210</v>
@@ -5215,19 +5215,19 @@
         <v>1266664</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1246823</v>
+        <v>1246318</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1284880</v>
+        <v>1284189</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9320899223706914</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9174902449936745</v>
+        <v>0.9171181373396575</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.945494784943699</v>
+        <v>0.9449862734537751</v>
       </c>
     </row>
     <row r="18">
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7490</v>
+        <v>8397</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007616295423950227</v>
@@ -5331,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02608400848700818</v>
+        <v>0.0292433926299454</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -5340,19 +5340,19 @@
         <v>110155</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>88278</v>
+        <v>91216</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>131300</v>
+        <v>135115</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1018047437184752</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08158572257827659</v>
+        <v>0.08430143591957122</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.121346686797134</v>
+        <v>0.1248719217186544</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>96</v>
@@ -5361,19 +5361,19 @@
         <v>112342</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>92748</v>
+        <v>93278</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>134057</v>
+        <v>136663</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08205134868337899</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06774042963389361</v>
+        <v>0.06812706307431526</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09791120091662356</v>
+        <v>0.09981481828602939</v>
       </c>
     </row>
     <row r="20">
@@ -5390,7 +5390,7 @@
         <v>284958</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>279655</v>
+        <v>278748</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -5399,7 +5399,7 @@
         <v>0.9923837045760497</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9739159915129924</v>
+        <v>0.970756607370056</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5411,19 +5411,19 @@
         <v>971870</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>950725</v>
+        <v>946910</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>993747</v>
+        <v>990809</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8981952562815247</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8786533132028661</v>
+        <v>0.8751280782813455</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9184142774217234</v>
+        <v>0.915698564080429</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1168</v>
@@ -5432,19 +5432,19 @@
         <v>1256828</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1235113</v>
+        <v>1232507</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1276422</v>
+        <v>1275892</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.917948651316621</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9020887990833765</v>
+        <v>0.9001851817139707</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9322595703661064</v>
+        <v>0.9318729369256848</v>
       </c>
     </row>
     <row r="21">
@@ -5536,19 +5536,19 @@
         <v>90024</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>71820</v>
+        <v>71922</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>110359</v>
+        <v>110427</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02658934356655259</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02121248888164258</v>
+        <v>0.02124276688369857</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03259548013544996</v>
+        <v>0.03261552994829463</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>239</v>
@@ -5557,19 +5557,19 @@
         <v>266481</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>235974</v>
+        <v>235251</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>301727</v>
+        <v>303144</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07545633279879871</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06681804457319143</v>
+        <v>0.06661311395952041</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08543653751270425</v>
+        <v>0.08583781389979382</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>325</v>
@@ -5578,19 +5578,19 @@
         <v>356505</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>320233</v>
+        <v>320940</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>397137</v>
+        <v>393556</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05153809629518979</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04629433063546718</v>
+        <v>0.04639664546737862</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05741202632969109</v>
+        <v>0.05689427293023396</v>
       </c>
     </row>
     <row r="23">
@@ -5607,19 +5607,19 @@
         <v>3295698</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3275363</v>
+        <v>3275295</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3313902</v>
+        <v>3313800</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9734106564334474</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9674045198645499</v>
+        <v>0.9673844700517052</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9787875111183574</v>
+        <v>0.9787572331163015</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3087</v>
@@ -5628,19 +5628,19 @@
         <v>3265115</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3229869</v>
+        <v>3228452</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3295622</v>
+        <v>3296345</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9245436672012013</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.914563462487296</v>
+        <v>0.9141621861002063</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9331819554268086</v>
+        <v>0.9333868860404797</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6225</v>
@@ -5649,19 +5649,19 @@
         <v>6560813</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6520181</v>
+        <v>6523762</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6597085</v>
+        <v>6596378</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9484619037048102</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.942587973670309</v>
+        <v>0.943105727069766</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9537056693645333</v>
+        <v>0.9536033545326211</v>
       </c>
     </row>
     <row r="24">
@@ -5995,19 +5995,19 @@
         <v>26864</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18156</v>
+        <v>18151</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38341</v>
+        <v>38339</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04878850114380438</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03297450908077723</v>
+        <v>0.03296564416596302</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06963202256867326</v>
+        <v>0.06962993668547443</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -6016,19 +6016,19 @@
         <v>28167</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20085</v>
+        <v>20430</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38098</v>
+        <v>39000</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05767161037358176</v>
+        <v>0.05767161037358175</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04112277841861769</v>
+        <v>0.04183015640997181</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07800423785136124</v>
+        <v>0.07985124026904718</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>73</v>
@@ -6037,19 +6037,19 @@
         <v>55031</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43323</v>
+        <v>42770</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>70198</v>
+        <v>69713</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05296413687000896</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04169586639587479</v>
+        <v>0.04116327155152701</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06756098235375342</v>
+        <v>0.06709465182207125</v>
       </c>
     </row>
     <row r="5">
@@ -6066,19 +6066,19 @@
         <v>523754</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>512277</v>
+        <v>512279</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>532462</v>
+        <v>532467</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9512114988561958</v>
+        <v>0.9512114988561956</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9303679774313265</v>
+        <v>0.9303700633145257</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9670254909192227</v>
+        <v>0.9670343558340373</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>644</v>
@@ -6087,19 +6087,19 @@
         <v>460244</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>450313</v>
+        <v>449411</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>468326</v>
+        <v>467981</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9423283896264183</v>
+        <v>0.9423283896264182</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9219957621486388</v>
+        <v>0.9201487597309536</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9588772215813823</v>
+        <v>0.9581698435900285</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1167</v>
@@ -6108,19 +6108,19 @@
         <v>983998</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>968831</v>
+        <v>969316</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>995706</v>
+        <v>996259</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9470358631299912</v>
+        <v>0.947035863129991</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9324390176462467</v>
+        <v>0.9329053481779295</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9583041336041254</v>
+        <v>0.958836728448474</v>
       </c>
     </row>
     <row r="6">
@@ -6212,19 +6212,19 @@
         <v>19939</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12541</v>
+        <v>13261</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29696</v>
+        <v>29863</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04126270056174436</v>
+        <v>0.04126270056174435</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02595440452619272</v>
+        <v>0.02744359833372093</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06145615948290952</v>
+        <v>0.06180119618930253</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -6233,19 +6233,19 @@
         <v>33770</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25720</v>
+        <v>26292</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44005</v>
+        <v>45776</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07980845149332491</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06078269554664257</v>
+        <v>0.06213526329214532</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1039964103667263</v>
+        <v>0.1081805009687928</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>76</v>
@@ -6254,19 +6254,19 @@
         <v>53709</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43121</v>
+        <v>42548</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67639</v>
+        <v>67826</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05925825312636444</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04757652895798441</v>
+        <v>0.04694435594276477</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07462750531354219</v>
+        <v>0.07483418009645611</v>
       </c>
     </row>
     <row r="8">
@@ -6283,19 +6283,19 @@
         <v>463273</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>453516</v>
+        <v>453349</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>470671</v>
+        <v>469951</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9587372994382557</v>
+        <v>0.9587372994382556</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9385438405170904</v>
+        <v>0.9381988038106974</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9740455954738072</v>
+        <v>0.972556401666279</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>538</v>
@@ -6304,19 +6304,19 @@
         <v>389373</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>379138</v>
+        <v>377367</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>397423</v>
+        <v>396851</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9201915485066748</v>
+        <v>0.9201915485066752</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8960035896332733</v>
+        <v>0.8918194990312072</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9392173044533574</v>
+        <v>0.9378647367078545</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>995</v>
@@ -6325,19 +6325,19 @@
         <v>852646</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>838716</v>
+        <v>838529</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>863234</v>
+        <v>863807</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9407417468736355</v>
+        <v>0.9407417468736358</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9253724946864581</v>
+        <v>0.9251658199035439</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9524234710420155</v>
+        <v>0.9530556440572351</v>
       </c>
     </row>
     <row r="9">
@@ -6429,19 +6429,19 @@
         <v>27448</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18499</v>
+        <v>18906</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39166</v>
+        <v>39084</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05820126294453738</v>
+        <v>0.05820126294453737</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03922413636153498</v>
+        <v>0.04008829221550415</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08304702978458857</v>
+        <v>0.08287425143335868</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -6450,19 +6450,19 @@
         <v>22341</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16913</v>
+        <v>16300</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29928</v>
+        <v>30687</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1191539750700394</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09020619828705431</v>
+        <v>0.08693651328665314</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.159619583385169</v>
+        <v>0.1636660273814254</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>72</v>
@@ -6471,19 +6471,19 @@
         <v>49789</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39514</v>
+        <v>39311</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62764</v>
+        <v>63983</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07554053161496684</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05995104680912053</v>
+        <v>0.0596431070654229</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0952250981985214</v>
+        <v>0.09707562591768892</v>
       </c>
     </row>
     <row r="11">
@@ -6500,19 +6500,19 @@
         <v>444164</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>432446</v>
+        <v>432528</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>453113</v>
+        <v>452706</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9417987370554626</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9169529702154113</v>
+        <v>0.9171257485666413</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9607758636384649</v>
+        <v>0.959911707784496</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>250</v>
@@ -6521,19 +6521,19 @@
         <v>165156</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>157569</v>
+        <v>156810</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>170584</v>
+        <v>171197</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8808460249299604</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8403804166148309</v>
+        <v>0.8363339726185746</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9097938017129458</v>
+        <v>0.9130634867133471</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>705</v>
@@ -6542,19 +6542,19 @@
         <v>609320</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>596345</v>
+        <v>595126</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>619595</v>
+        <v>619798</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9244594683850332</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9047749018014788</v>
+        <v>0.9029243740823112</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9400489531908794</v>
+        <v>0.940356892934577</v>
       </c>
     </row>
     <row r="12">
@@ -6646,19 +6646,19 @@
         <v>67241</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54572</v>
+        <v>53411</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83232</v>
+        <v>84046</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.059408114930141</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04821546272164262</v>
+        <v>0.04718903306428288</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07353665667642417</v>
+        <v>0.07425548248368219</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>107</v>
@@ -6667,19 +6667,19 @@
         <v>61968</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50837</v>
+        <v>51918</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74576</v>
+        <v>74275</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07209185076357272</v>
+        <v>0.0720918507635727</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05914234820925994</v>
+        <v>0.06039982453863486</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08675959079609646</v>
+        <v>0.08640977616218327</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>194</v>
@@ -6688,19 +6688,19 @@
         <v>129209</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111146</v>
+        <v>111092</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>151021</v>
+        <v>148171</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06488290023264015</v>
+        <v>0.06488290023264016</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05581253627865684</v>
+        <v>0.05578563712555316</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07583596662567456</v>
+        <v>0.07440471711176901</v>
       </c>
     </row>
     <row r="14">
@@ -6717,19 +6717,19 @@
         <v>1064602</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1048611</v>
+        <v>1047797</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1077271</v>
+        <v>1078432</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.940591885069859</v>
+        <v>0.9405918850698589</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.926463343323576</v>
+        <v>0.9257445175163175</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9517845372783578</v>
+        <v>0.952810966935717</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1120</v>
@@ -6738,19 +6738,19 @@
         <v>797602</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>784994</v>
+        <v>785295</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>808733</v>
+        <v>807652</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9279081492364273</v>
+        <v>0.9279081492364272</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9132404092039037</v>
+        <v>0.9135902238378169</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9408576517907402</v>
+        <v>0.9396001754613652</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2151</v>
@@ -6759,19 +6759,19 @@
         <v>1862204</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1840392</v>
+        <v>1843242</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1880267</v>
+        <v>1880321</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9351170997673599</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9241640333743254</v>
+        <v>0.925595282888231</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9441874637213429</v>
+        <v>0.944214362874447</v>
       </c>
     </row>
     <row r="15">
@@ -6863,19 +6863,19 @@
         <v>29752</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21581</v>
+        <v>21271</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39848</v>
+        <v>41169</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05252003945228057</v>
+        <v>0.05252003945228056</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03809728590832185</v>
+        <v>0.0375489354215455</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07034386340367781</v>
+        <v>0.07267562628535378</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>227</v>
@@ -6884,19 +6884,19 @@
         <v>126020</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>111647</v>
+        <v>111695</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>143877</v>
+        <v>143546</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1519377102308865</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1346087664237761</v>
+        <v>0.1346660792800219</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1734672991385332</v>
+        <v>0.1730684533523142</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>263</v>
@@ -6905,19 +6905,19 @@
         <v>155772</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>139062</v>
+        <v>136357</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>181918</v>
+        <v>177031</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1115922462487755</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09962147171509883</v>
+        <v>0.09768389441720121</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1303230865918864</v>
+        <v>0.1268218901695324</v>
       </c>
     </row>
     <row r="17">
@@ -6934,19 +6934,19 @@
         <v>536729</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>526633</v>
+        <v>525312</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>544900</v>
+        <v>545210</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9474799605477195</v>
+        <v>0.9474799605477194</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9296561365963221</v>
+        <v>0.9273243737146464</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9619027140916782</v>
+        <v>0.9624510645784544</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1061</v>
@@ -6955,19 +6955,19 @@
         <v>703399</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>685542</v>
+        <v>685873</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>717772</v>
+        <v>717724</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8480622897691134</v>
+        <v>0.8480622897691135</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8265327008614668</v>
+        <v>0.8269315466476858</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8653912335762238</v>
+        <v>0.8653339207199781</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1570</v>
@@ -6976,19 +6976,19 @@
         <v>1240128</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1213982</v>
+        <v>1218869</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1256838</v>
+        <v>1259543</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8884077537512246</v>
+        <v>0.8884077537512244</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8696769134081136</v>
+        <v>0.8731781098304681</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9003785282849012</v>
+        <v>0.9023161055827987</v>
       </c>
     </row>
     <row r="18">
@@ -7080,19 +7080,19 @@
         <v>9088</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3573</v>
+        <v>3622</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20400</v>
+        <v>23177</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03830776005841521</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01506321778705301</v>
+        <v>0.01526592761205869</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08599329053331885</v>
+        <v>0.09769756597571404</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>176</v>
@@ -7101,19 +7101,19 @@
         <v>106686</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>91025</v>
+        <v>92053</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>123912</v>
+        <v>125059</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1265563552893071</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1079785322023318</v>
+        <v>0.1091975395660538</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1469911188732413</v>
+        <v>0.1483514358483761</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>184</v>
@@ -7122,19 +7122,19 @@
         <v>115774</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>99142</v>
+        <v>98937</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>135317</v>
+        <v>134746</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1071760431353283</v>
+        <v>0.1071760431353282</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09177948368919446</v>
+        <v>0.09158989423750993</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1252676646906429</v>
+        <v>0.124738875878515</v>
       </c>
     </row>
     <row r="20">
@@ -7151,19 +7151,19 @@
         <v>228140</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>216828</v>
+        <v>214051</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>233655</v>
+        <v>233606</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9616922399415848</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9140067094666811</v>
+        <v>0.9023024340242859</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9849367822129469</v>
+        <v>0.9847340723879414</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>981</v>
@@ -7172,19 +7172,19 @@
         <v>736307</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>719081</v>
+        <v>717934</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>751968</v>
+        <v>750940</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8734436447106929</v>
+        <v>0.8734436447106927</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8530088811267588</v>
+        <v>0.8516485641516238</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8920214677976683</v>
+        <v>0.8908024604339462</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1085</v>
@@ -7193,19 +7193,19 @@
         <v>964447</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>944904</v>
+        <v>945475</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>981079</v>
+        <v>981284</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8928239568646718</v>
+        <v>0.8928239568646715</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8747323353093569</v>
+        <v>0.8752611241214848</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9082205163108055</v>
+        <v>0.90841010576249</v>
       </c>
     </row>
     <row r="21">
@@ -7297,19 +7297,19 @@
         <v>180331</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>159312</v>
+        <v>157155</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>209614</v>
+        <v>206660</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.05240660403170243</v>
+        <v>0.05240660403170242</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04629824904785737</v>
+        <v>0.04567126868974709</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06091673144830174</v>
+        <v>0.06005831314303181</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>643</v>
@@ -7318,19 +7318,19 @@
         <v>378953</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>352099</v>
+        <v>348095</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>409234</v>
+        <v>409845</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.104365067171388</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09696942335468434</v>
+        <v>0.09586655301058034</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1127047119204308</v>
+        <v>0.1128728992193298</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>862</v>
@@ -7339,19 +7339,19 @@
         <v>559284</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>521973</v>
+        <v>521952</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>599795</v>
+        <v>601024</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07908394751528088</v>
+        <v>0.07908394751528089</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07380809436020519</v>
+        <v>0.07380520262392093</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08481236348025659</v>
+        <v>0.08498606447442394</v>
       </c>
     </row>
     <row r="23">
@@ -7368,19 +7368,19 @@
         <v>3260662</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3231379</v>
+        <v>3234333</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3281681</v>
+        <v>3283838</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9475933959682977</v>
+        <v>0.9475933959682975</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9390832685516981</v>
+        <v>0.939941686856968</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9537017509521425</v>
+        <v>0.9543287313102526</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4594</v>
@@ -7389,19 +7389,19 @@
         <v>3252079</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3221798</v>
+        <v>3221187</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3278933</v>
+        <v>3282937</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.895634932828612</v>
+        <v>0.8956349328286118</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8872952880795693</v>
+        <v>0.8871271007806704</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9030305766453149</v>
+        <v>0.9041334469894211</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7673</v>
@@ -7410,19 +7410,19 @@
         <v>6512742</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6472231</v>
+        <v>6471002</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6550053</v>
+        <v>6550074</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9209160524847192</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9151876365197433</v>
+        <v>0.9150139355255761</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9261919056397948</v>
+        <v>0.926194797376079</v>
       </c>
     </row>
     <row r="24">
